--- a/data/trans_dic/P5_7-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_7-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de ventanas al exterior en su vivienda</t>
+          <t>Población que disfruta de ventanas al exterior en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>96,43%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,31; 98,05</t>
+          <t>95,25; 97,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,74; 97,84</t>
+          <t>89,75; 97,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,1; 98,38</t>
+          <t>96,22; 98,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>95,77; 98,24</t>
+          <t>95,37; 98,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,24; 97,9</t>
+          <t>96,28; 97,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,09; 97,68</t>
+          <t>93,35; 97,61</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>97,96%</t>
         </is>
       </c>
     </row>
@@ -724,27 +725,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,36; 99,06</t>
+          <t>96,62; 99,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,43; 98,95</t>
+          <t>96,36; 98,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>95,59; 98,85</t>
+          <t>95,68; 98,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,88; 98,57</t>
+          <t>96,86; 98,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>96,67; 98,7</t>
+          <t>96,72; 98,68</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>97,7%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>95,77; 100,0</t>
+          <t>95,05; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,23; 100,0</t>
+          <t>93,75; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>95,01; 99,47</t>
+          <t>94,46; 99,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>89,55; 98,91</t>
+          <t>93,63; 99,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,18; 99,3</t>
+          <t>96,4; 99,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,3; 98,99</t>
+          <t>94,97; 99,15</t>
         </is>
       </c>
     </row>
@@ -846,27 +847,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>97,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>97,73%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>97,36%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>97,56%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>97,18%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>97,73%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>97,29%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>97,56%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>97,24%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,47; 98,19</t>
+          <t>96,4; 98,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,69; 98,19</t>
+          <t>94,21; 98,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,83; 98,34</t>
+          <t>96,85; 98,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,19; 98,16</t>
+          <t>96,41; 98,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,9; 98,06</t>
+          <t>96,94; 98,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,18; 97,88</t>
+          <t>95,85; 97,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de ventanas al exterior en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>648.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>673.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1424.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1233.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1587935</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1581935</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1745771</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1756511</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3333706</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3338446</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1562156; 1606621</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1483259; 1619076</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1723367; 1762503</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1725631; 1774672</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3303559; 3361476</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3231753; 3379248</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>616.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>504.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1152.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>954.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1354429</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1348881</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1382120</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1360242</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2736549</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2709123</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1331932; 1368652</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1327683; 1362686</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1358499; 1394736</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1331346; 1374596</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2708508; 2757240</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2674767; 2729013</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>417102</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>415039</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>402822</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>400485</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>819924</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>815524</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>401879; 422814</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>396381; 422814</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>389073; 409659</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>385652; 408582</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>804682; 828386</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>792718; 827615</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1312.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1124.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1564.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1314.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2876.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2438.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3359466</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3345855</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3530714</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3517238</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6890179</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6863093</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3325196; 3384064</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3249742; 3381918</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3498832; 3556012</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3483176; 3543948</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6846074; 6927415</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6769355; 6913800</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>